--- a/eg2 adavanced.xlsx
+++ b/eg2 adavanced.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503A0C0F-464B-9347-B2FD-7F9BBA93E765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8630E7-A182-A340-956D-70D800A3E8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26520" activeTab="5" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19920" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
   <sheets>
     <sheet name="Ours 0.25" sheetId="1" r:id="rId1"/>
@@ -493,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7B8AE4-A984-5E47-83F5-2F9341F82724}">
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:M40"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -574,19 +574,19 @@
         <v>7</v>
       </c>
       <c r="H2" s="6">
-        <v>13.857612038633601</v>
+        <v>16.7028189474923</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="6">
-        <v>13.7184015663282</v>
+        <v>16.1154946940378</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L2" s="6">
-        <v>13.5631670383046</v>
+        <v>15.853100742412501</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>7</v>
@@ -615,19 +615,19 @@
         <v>7</v>
       </c>
       <c r="H3" s="6">
-        <v>13.606779480955399</v>
+        <v>16.451986389814099</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="6">
-        <v>13.5783261386073</v>
+        <v>15.941322351324301</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L3" s="6">
-        <v>13.3512328387213</v>
+        <v>15.576654546476799</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>7</v>
@@ -656,19 +656,19 @@
         <v>7</v>
       </c>
       <c r="H4" s="6">
-        <v>13.507437134764</v>
+        <v>16.3526440436227</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J4" s="6">
-        <v>13.7431611148036</v>
+        <v>16.106157327520599</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L4" s="6">
-        <v>13.5148037575866</v>
+        <v>15.7397638043994</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>7</v>
@@ -697,19 +697,19 @@
         <v>7</v>
       </c>
       <c r="H5" s="6">
-        <v>13.520343209287899</v>
+        <v>16.365550118146601</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="7">
-        <v>13.535078915707</v>
+        <v>15.898075128423899</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="L5" s="7">
-        <v>13.3074992419195</v>
+        <v>15.532920949675001</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>7</v>
@@ -739,19 +739,19 @@
         <v>7</v>
       </c>
       <c r="H6" s="6">
-        <v>10.341327509523399</v>
+        <v>13.4433697157121</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="6">
-        <v>10.107864253311901</v>
+        <v>12.504957381021599</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L6" s="6">
-        <v>9.9746085544013692</v>
+        <v>12.211911600057901</v>
       </c>
       <c r="M6" s="6" t="s">
         <v>7</v>
@@ -780,19 +780,19 @@
         <v>7</v>
       </c>
       <c r="H7" s="6">
-        <v>10.1932390543232</v>
+        <v>13.6799076490617</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J7" s="6">
-        <v>10.2265406514787</v>
+        <v>12.589536864195701</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L7" s="6">
-        <v>10.070559862280501</v>
+        <v>12.3411951727439</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>7</v>
@@ -821,19 +821,19 @@
         <v>7</v>
       </c>
       <c r="H8" s="6">
-        <v>10.4345935198078</v>
+        <v>13.4640663557267</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J8" s="6">
-        <v>10.247218959122501</v>
+        <v>12.6443120868321</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L8" s="6">
-        <v>10.1740907671209</v>
+        <v>12.396312635366799</v>
       </c>
       <c r="M8" s="6" t="s">
         <v>7</v>
@@ -862,19 +862,19 @@
         <v>7</v>
       </c>
       <c r="H9" s="6">
-        <v>10.2691024156818</v>
+        <v>13.506863444349801</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J9" s="6">
-        <v>10.135954466023399</v>
+        <v>12.4989506787404</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L9" s="6">
-        <v>9.9660414697882196</v>
+        <v>12.188263338034</v>
       </c>
       <c r="M9" s="6" t="s">
         <v>7</v>
@@ -903,19 +903,19 @@
         <v>7</v>
       </c>
       <c r="H10" s="6">
-        <v>7.4111663835844599</v>
+        <v>12.0139339075434</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J10" s="6">
-        <v>6.8315652086394101</v>
+        <v>10.064382341811401</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L10" s="6">
-        <v>6.4872880343487802</v>
+        <v>8.9838787387349601</v>
       </c>
       <c r="M10" s="6" t="s">
         <v>7</v>
@@ -944,19 +944,19 @@
         <v>7</v>
       </c>
       <c r="H11" s="6">
-        <v>7.6710871183631602</v>
+        <v>12.0466322914356</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J11" s="6">
-        <v>6.9067668459532001</v>
+        <v>10.064850275525799</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L11" s="6">
-        <v>6.6176462227479096</v>
+        <v>8.9877771354065104</v>
       </c>
       <c r="M11" s="6" t="s">
         <v>7</v>
@@ -985,19 +985,19 @@
         <v>7</v>
       </c>
       <c r="H12" s="6">
-        <v>8.2395959315920706</v>
+        <v>12.0404175088399</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J12" s="6">
-        <v>7.50026984430525</v>
+        <v>10.058633313635299</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L12" s="6">
-        <v>7.2393692733165897</v>
+        <v>9.5100045837800202</v>
       </c>
       <c r="M12" s="6" t="s">
         <v>7</v>
@@ -1026,19 +1026,19 @@
         <v>7</v>
       </c>
       <c r="H13" s="6">
-        <v>7.63096294043042</v>
+        <v>12.017235660612</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J13" s="6">
-        <v>6.9759244463560304</v>
+        <v>10.0673607748548</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L13" s="6">
-        <v>6.6868038231507398</v>
+        <v>8.9938740874864997</v>
       </c>
       <c r="M13" s="6" t="s">
         <v>7</v>
@@ -1067,19 +1067,19 @@
         <v>7</v>
       </c>
       <c r="H14" s="6">
-        <v>11.6920797070939</v>
+        <v>16.732064178581101</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J14" s="6">
-        <v>9.7739086365802308</v>
+        <v>13.992513710578701</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L14" s="6">
-        <v>8.7168546318415494</v>
+        <v>12.454565440945199</v>
       </c>
       <c r="M14" s="6" t="s">
         <v>7</v>
@@ -1108,19 +1108,19 @@
         <v>7</v>
       </c>
       <c r="H15" s="6">
-        <v>11.717607037086999</v>
+        <v>16.7663986165024</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J15" s="6">
-        <v>9.7834970867736395</v>
+        <v>14.0021021607721</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L15" s="6">
-        <v>8.7374565749768092</v>
+        <v>12.450655257038701</v>
       </c>
       <c r="M15" s="6" t="s">
         <v>7</v>
@@ -1149,19 +1149,19 @@
         <v>7</v>
       </c>
       <c r="H16" s="6">
-        <v>11.672142826874699</v>
+        <v>16.718751969183501</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J16" s="6">
-        <v>9.7727440288765397</v>
+        <v>13.9913491028751</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L16" s="6">
-        <v>8.7504959329370404</v>
+        <v>12.4379278474374</v>
       </c>
       <c r="M16" s="6" t="s">
         <v>7</v>
@@ -1190,19 +1190,19 @@
         <v>7</v>
       </c>
       <c r="H17" s="6">
-        <v>11.6809352627475</v>
+        <v>16.7238399913034</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J17" s="6">
-        <v>9.7826904384894409</v>
+        <v>14.0012955124879</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L17" s="6">
-        <v>8.7233185171488596</v>
+        <v>12.4310545080228</v>
       </c>
       <c r="M17" s="6" t="s">
         <v>7</v>
@@ -1231,19 +1231,19 @@
         <v>7</v>
       </c>
       <c r="H18" s="6">
-        <v>21.0959953704252</v>
+        <v>26.135271782986301</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J18" s="6">
-        <v>17.626643561455101</v>
+        <v>21.845248635453601</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L18" s="6">
-        <v>15.5017569970113</v>
+        <v>19.1605100658815</v>
       </c>
       <c r="M18" s="6" t="s">
         <v>7</v>
@@ -1272,19 +1272,19 @@
         <v>7</v>
       </c>
       <c r="H19" s="6">
-        <v>21.165906661691899</v>
+        <v>26.205504934303001</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J19" s="6">
-        <v>17.642962687345801</v>
+        <v>21.8615677613444</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L19" s="6">
-        <v>15.591275007627599</v>
+        <v>19.250028076497799</v>
       </c>
       <c r="M19" s="6" t="s">
         <v>7</v>
@@ -1313,19 +1313,19 @@
         <v>7</v>
       </c>
       <c r="H20" s="6">
-        <v>21.084773998834201</v>
+        <v>26.124050411395199</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J20" s="6">
-        <v>17.6258561207677</v>
+        <v>21.8444611947662</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L20" s="6">
-        <v>15.5990370820981</v>
+        <v>19.257790150968301</v>
       </c>
       <c r="M20" s="6" t="s">
         <v>7</v>
@@ -1354,19 +1354,19 @@
         <v>7</v>
       </c>
       <c r="H21" s="6">
-        <v>21.066480297721899</v>
+        <v>26.105756710283</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J21" s="6">
-        <v>17.643397968890699</v>
+        <v>21.862003042889299</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L21" s="6">
-        <v>15.516369731329</v>
+        <v>19.175122800199301</v>
       </c>
       <c r="M21" s="6" t="s">
         <v>7</v>
@@ -1395,19 +1395,19 @@
         <v>7</v>
       </c>
       <c r="H22" s="6">
-        <v>39.868746993453698</v>
+        <v>44.907383037364298</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J22" s="6">
-        <v>33.346867475586002</v>
+        <v>37.565472549584598</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L22" s="6">
-        <v>29.1884684521889</v>
+        <v>32.847221521059197</v>
       </c>
       <c r="M22" s="6" t="s">
         <v>7</v>
@@ -1436,19 +1436,19 @@
         <v>7</v>
       </c>
       <c r="H23" s="6">
-        <v>39.8790481512859</v>
+        <v>44.918219891941298</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J23" s="6">
-        <v>33.364800523893898</v>
+        <v>37.583405597892501</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L23" s="6">
-        <v>29.176194663736801</v>
+        <v>32.834947732606999</v>
       </c>
       <c r="M23" s="6" t="s">
         <v>7</v>
@@ -1477,19 +1477,19 @@
         <v>7</v>
       </c>
       <c r="H24" s="6">
-        <v>39.876775381477103</v>
+        <v>44.914856163418101</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J24" s="6">
-        <v>33.3975525646675</v>
+        <v>37.616157638666103</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L24" s="6">
-        <v>29.219315554592601</v>
+        <v>32.878068623462802</v>
       </c>
       <c r="M24" s="6" t="s">
         <v>7</v>
@@ -1518,19 +1518,19 @@
         <v>7</v>
       </c>
       <c r="H25" s="6">
-        <v>39.853296225280999</v>
+        <v>44.8921278022287</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J25" s="6">
-        <v>33.355931583719297</v>
+        <v>37.5745366577179</v>
       </c>
       <c r="K25" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L25" s="6">
-        <v>29.1514124531483</v>
+        <v>32.8101655220186</v>
       </c>
       <c r="M25" s="6" t="s">
         <v>7</v>
@@ -1559,19 +1559,19 @@
         <v>7</v>
       </c>
       <c r="H26" s="6">
-        <v>77.398022086455995</v>
+        <v>82.435977530325303</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J26" s="6">
-        <v>64.788361033812805</v>
+        <v>69.006966107811394</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L26" s="6">
-        <v>56.593716755982697</v>
+        <v>60.252469824852902</v>
       </c>
       <c r="M26" s="6" t="s">
         <v>7</v>
@@ -1600,19 +1600,19 @@
         <v>7</v>
       </c>
       <c r="H27" s="6">
-        <v>77.377485164537603</v>
+        <v>82.415440608406897</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J27" s="6">
-        <v>64.782694669828501</v>
+        <v>69.001299743827104</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L27" s="6">
-        <v>56.513159886475798</v>
+        <v>60.171912955346102</v>
       </c>
       <c r="M27" s="6" t="s">
         <v>7</v>
@@ -1641,62 +1641,62 @@
         <v>7</v>
       </c>
       <c r="H28" s="6">
-        <v>77.405525059535705</v>
+        <v>82.443480503404999</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J28" s="6">
-        <v>64.786708528564105</v>
+        <v>69.005313602562595</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L28" s="6">
-        <v>56.452765867587303</v>
+        <v>60.1115189364576</v>
       </c>
       <c r="M28" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
+      <c r="A29" s="4">
         <v>64</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="10">
         <v>6.4403090150432296E-3</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="10">
         <v>6.5526793948671898E-3</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="4">
         <v>28</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="4">
         <v>0.25</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="7">
         <v>67.171875</v>
       </c>
-      <c r="G29" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H29" s="8">
-        <v>77.382117697134206</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J29" s="8">
-        <v>64.775273563728405</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L29" s="8">
-        <v>56.446490094538902</v>
-      </c>
-      <c r="M29" s="8" t="s">
+      <c r="G29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="7">
+        <v>82.420073141003499</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" s="7">
+        <v>68.993878637726993</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L29" s="7">
+        <v>60.105243163409199</v>
+      </c>
+      <c r="M29" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1723,19 +1723,19 @@
         <v>7</v>
       </c>
       <c r="H30" s="6">
-        <v>152.540400377624</v>
+        <v>157.57835582149301</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J30" s="6">
-        <v>127.658528942061</v>
+        <v>131.87713401606001</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L30" s="6">
-        <v>111.02868598167299</v>
+        <v>114.68743905054301</v>
       </c>
       <c r="M30" s="6" t="s">
         <v>7</v>
@@ -1764,19 +1764,19 @@
         <v>7</v>
       </c>
       <c r="H31" s="6">
-        <v>152.494283831827</v>
+        <v>157.53223927569601</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J31" s="6">
-        <v>127.656316242559</v>
+        <v>131.87492131655699</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L31" s="6">
-        <v>110.95007237259701</v>
+        <v>114.608825441467</v>
       </c>
       <c r="M31" s="6" t="s">
         <v>7</v>
@@ -1805,19 +1805,19 @@
         <v>7</v>
       </c>
       <c r="H32" s="6">
-        <v>152.50418897639901</v>
+        <v>157.54214442026901</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J32" s="6">
-        <v>127.646139393938</v>
+        <v>131.86474446793699</v>
       </c>
       <c r="K32" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L32" s="6">
-        <v>110.98742106024601</v>
+        <v>114.64617412911601</v>
       </c>
       <c r="M32" s="6" t="s">
         <v>7</v>
@@ -1846,19 +1846,19 @@
         <v>7</v>
       </c>
       <c r="H33" s="6">
-        <v>152.478006831519</v>
+        <v>157.51596227538801</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J33" s="6">
-        <v>127.651416565669</v>
+        <v>131.87002163966801</v>
       </c>
       <c r="K33" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L33" s="6">
-        <v>110.905469859284</v>
+        <v>114.564222928154</v>
       </c>
       <c r="M33" s="6" t="s">
         <v>7</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="0"/>
-        <v>13.623042965910226</v>
+        <v>16.468249874768926</v>
       </c>
       <c r="I35" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="0"/>
-        <v>13.643741933861524</v>
+        <v>16.01526237532665</v>
       </c>
       <c r="K35" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="L35">
         <f t="shared" ca="1" si="0"/>
-        <v>13.434175719133</v>
+        <v>15.675610010740925</v>
       </c>
       <c r="M35" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="1"/>
-        <v>10.30956562483405</v>
+        <v>13.523551791212576</v>
       </c>
       <c r="I36" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -1957,7 +1957,7 @@
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="1"/>
-        <v>10.179394582484125</v>
+        <v>12.55943925269745</v>
       </c>
       <c r="K36" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="L36">
         <f t="shared" ca="1" si="1"/>
-        <v>10.046325163397746</v>
+        <v>12.28442068655065</v>
       </c>
       <c r="M36" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="1"/>
-        <v>7.7382030934925279</v>
+        <v>12.029554842107725</v>
       </c>
       <c r="I37" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0536315863134735</v>
+        <v>10.063806676456824</v>
       </c>
       <c r="K37" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -2019,7 +2019,7 @@
       </c>
       <c r="L37">
         <f t="shared" ca="1" si="1"/>
-        <v>6.7577768383910053</v>
+        <v>9.1188836363519972</v>
       </c>
       <c r="M37" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -2027,109 +2027,109 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
+      <c r="A38" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>8</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>6.5446581364549793E-3</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>6.6951381493399395E-3</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>14.5</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>8.396484375</v>
       </c>
-      <c r="G38" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H38" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>11.690691208450776</v>
-      </c>
-      <c r="I38" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J38" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.7782100476799627</v>
-      </c>
-      <c r="K38" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L38" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.732031414226066</v>
-      </c>
-      <c r="M38" s="2" t="e">
+      <c r="G38" s="4" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H38" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>16.735263688892601</v>
+      </c>
+      <c r="I38" s="4" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J38" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>13.99681512167845</v>
+      </c>
+      <c r="K38" s="4" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L38" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>12.443550763361024</v>
+      </c>
+      <c r="M38" s="4" t="e">
         <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
+      <c r="A39" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>16</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>6.4766424066545602E-3</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>6.6431610525506399E-3</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>18.5</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>16.79296875</v>
       </c>
-      <c r="G39" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H39" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>21.103289082168299</v>
-      </c>
-      <c r="I39" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J39" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>17.634715084614825</v>
-      </c>
-      <c r="K39" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L39" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>15.5521097045165</v>
-      </c>
-      <c r="M39" s="2" t="e">
+      <c r="G39" s="4" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H39" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>26.142645959741877</v>
+      </c>
+      <c r="I39" s="4" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J39" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>21.853320158613375</v>
+      </c>
+      <c r="K39" s="4" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L39" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.210862773386726</v>
+      </c>
+      <c r="M39" s="4" t="e">
         <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="H40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>39.869466687874421</v>
+        <v>44.908146723738099</v>
       </c>
       <c r="I40" s="2" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -2173,7 +2173,7 @@
       </c>
       <c r="J40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>33.366288036966672</v>
+        <v>37.584893110965268</v>
       </c>
       <c r="K40" s="2" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="L40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>29.183847780916651</v>
+        <v>32.842600849786898</v>
       </c>
       <c r="M40" s="2" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -2219,7 +2219,7 @@
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="1"/>
-        <v>77.390787501915881</v>
+        <v>82.428742945785174</v>
       </c>
       <c r="I41" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -2227,7 +2227,7 @@
       </c>
       <c r="J41">
         <f t="shared" ca="1" si="1"/>
-        <v>64.783259448983458</v>
+        <v>69.001864522982018</v>
       </c>
       <c r="K41" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -2235,7 +2235,7 @@
       </c>
       <c r="L41">
         <f t="shared" ca="1" si="1"/>
-        <v>56.501533151146177</v>
+        <v>60.160286220016452</v>
       </c>
       <c r="M41" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="1"/>
-        <v>152.50422000434224</v>
+        <v>157.54217544821151</v>
       </c>
       <c r="I42" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="J42">
         <f t="shared" ca="1" si="1"/>
-        <v>127.65310028605674</v>
+        <v>131.8717053600555</v>
       </c>
       <c r="K42" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -2289,11 +2289,17 @@
       </c>
       <c r="L42">
         <f t="shared" ca="1" si="1"/>
-        <v>110.96791231844999</v>
+        <v>114.62666538732</v>
       </c>
       <c r="M42" t="e">
         <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C43" s="9">
+        <f ca="1">MIN(C35:C42)</f>
+        <v>6.6195386771528749E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2306,8 +2312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DB52E5-1EE4-6742-BBA1-1DF7743E4AEB}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:N33"/>
+    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4118,7 +4124,7 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:N33"/>
+      <selection activeCell="A2" sqref="A2:N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5931,8 +5937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499F75C7-8FFA-2B49-8587-42E413E03360}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q41" sqref="Q41"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6174,22 +6180,22 @@
         <v>47.720609622941602</v>
       </c>
       <c r="H6" s="8">
-        <v>884.17713019052303</v>
+        <v>889.21508563439204</v>
       </c>
       <c r="I6" s="8">
-        <v>55.663520119890499</v>
+        <v>60.701475563759701</v>
       </c>
       <c r="J6" s="8">
-        <v>740.33919029128299</v>
+        <v>744.55779536528098</v>
       </c>
       <c r="K6" s="8">
-        <v>46.5713000702318</v>
+        <v>50.789905144230303</v>
       </c>
       <c r="L6" s="8">
-        <v>642.49193572015497</v>
+        <v>646.15068878902503</v>
       </c>
       <c r="M6" s="8">
-        <v>40.794134455249399</v>
+        <v>44.452887524119703</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -6215,22 +6221,22 @@
         <v>77.769158903204101</v>
       </c>
       <c r="H7" s="8">
-        <v>1996.42673264716</v>
+        <v>2001.46468809103</v>
       </c>
       <c r="I7" s="8">
-        <v>89.213617382216398</v>
+        <v>94.251572826085706</v>
       </c>
       <c r="J7" s="8">
-        <v>1671.73241776138</v>
+        <v>1675.9510228353799</v>
       </c>
       <c r="K7" s="8">
-        <v>74.699848717067496</v>
+        <v>78.918453791066099</v>
       </c>
       <c r="L7" s="8">
-        <v>1450.23133343209</v>
+        <v>1453.89008650096</v>
       </c>
       <c r="M7" s="8">
-        <v>65.141307088795699</v>
+        <v>68.800060157665996</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -6256,22 +6262,22 @@
         <v>99.394598102599502</v>
       </c>
       <c r="H8" s="8">
-        <v>1495.87508355111</v>
+        <v>1500.9130389949801</v>
       </c>
       <c r="I8" s="8">
-        <v>113.441253172251</v>
+        <v>118.47920861612</v>
       </c>
       <c r="J8" s="8">
-        <v>1252.5231462940999</v>
+        <v>1256.7417513681</v>
       </c>
       <c r="K8" s="8">
-        <v>94.922124157141099</v>
+        <v>99.140729231139701</v>
       </c>
       <c r="L8" s="8">
-        <v>1086.61865834625</v>
+        <v>1090.27741141512</v>
       </c>
       <c r="M8" s="8">
-        <v>82.643121888536498</v>
+        <v>86.301874957406795</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -6297,22 +6303,22 @@
         <v>63.129551334679697</v>
       </c>
       <c r="H9" s="8">
-        <v>925.93880748999402</v>
+        <v>930.97676293386303</v>
       </c>
       <c r="I9" s="8">
-        <v>72.890423384328699</v>
+        <v>77.928378828198007</v>
       </c>
       <c r="J9" s="8">
-        <v>775.30372751764605</v>
+        <v>779.52233259164404</v>
       </c>
       <c r="K9" s="8">
-        <v>60.9912883447873</v>
+        <v>65.209893418785896</v>
       </c>
       <c r="L9" s="8">
-        <v>672.83196135944695</v>
+        <v>676.49071442831701</v>
       </c>
       <c r="M9" s="8">
-        <v>53.316082742557299</v>
+        <v>56.974835811427504</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -7384,27 +7390,27 @@
       </c>
       <c r="H36" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1325.6044384696968</v>
+        <v>1330.6423939135664</v>
       </c>
       <c r="I36" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>82.802203514671646</v>
+        <v>87.840158958540854</v>
       </c>
       <c r="J36" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1109.9746204661021</v>
+        <v>1114.1932255401014</v>
       </c>
       <c r="K36" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>69.296140322306925</v>
+        <v>73.5147453963055</v>
       </c>
       <c r="L36" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>963.04347221448552</v>
+        <v>966.70222528335557</v>
       </c>
       <c r="M36" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>60.473661543784715</v>
+        <v>64.132414612654998</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -7746,8 +7752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4411848-26EC-7848-88E5-EF7373A463AB}">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="M38" sqref="A38:M38"/>
+    <sheetView topLeftCell="A12" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7820,19 +7826,19 @@
         <v>7</v>
       </c>
       <c r="H2" s="7">
-        <v>13.5067752847884</v>
+        <v>16.3519821936471</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="7">
-        <v>13.4245461550868</v>
+        <v>15.7875423678038</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="L2" s="7">
-        <v>13.2286399126959</v>
+        <v>15.459774936748399</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>7</v>
@@ -7861,19 +7867,19 @@
         <v>7</v>
       </c>
       <c r="H3" s="7">
-        <v>13.7390750894759</v>
+        <v>16.5842819983346</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="7">
-        <v>13.5745712669507</v>
+        <v>15.971664394660401</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="L3" s="7">
-        <v>13.363313141209799</v>
+        <v>15.681369747234299</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>7</v>
@@ -7902,19 +7908,19 @@
         <v>7</v>
       </c>
       <c r="H4" s="7">
-        <v>13.497862244627299</v>
+        <v>16.343069153485999</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J4" s="7">
-        <v>13.4536208239711</v>
+        <v>15.8166170366881</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="L4" s="7">
-        <v>13.2590459109259</v>
+        <v>15.464139004149301</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>7</v>
@@ -7943,19 +7949,19 @@
         <v>7</v>
       </c>
       <c r="H5" s="7">
-        <v>13.6537012109969</v>
+        <v>16.498908119855599</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="7">
-        <v>13.4635893257276</v>
+        <v>15.8606824534372</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="L5" s="7">
-        <v>13.210761490208901</v>
+        <v>15.5452174797782</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>7</v>
@@ -7986,19 +7992,19 @@
         <v>7</v>
       </c>
       <c r="H6" s="7">
-        <v>9.9937132211933406</v>
+        <v>13.264978735945199</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="7">
-        <v>9.7561572716530396</v>
+        <v>12.1532503993626</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="L6" s="7">
-        <v>9.6388999362373102</v>
+        <v>11.867595594351201</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>7</v>
@@ -8027,19 +8033,19 @@
         <v>7</v>
       </c>
       <c r="H7" s="7">
-        <v>10.032662233949599</v>
+        <v>13.3005016737199</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J7" s="7">
-        <v>9.8101915047463102</v>
+        <v>12.207284632455901</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="L7" s="7">
-        <v>9.7074312212225493</v>
+        <v>11.929653089468299</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>7</v>
@@ -8068,19 +8074,19 @@
         <v>7</v>
       </c>
       <c r="H8" s="7">
-        <v>10.055732569337801</v>
+        <v>13.144672182393499</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J8" s="7">
-        <v>9.8746250794228203</v>
+        <v>12.2717182071324</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="L8" s="7">
-        <v>9.8076194765326008</v>
+        <v>12.029841344778401</v>
       </c>
       <c r="M8" s="7" t="s">
         <v>7</v>
@@ -8109,19 +8115,19 @@
         <v>7</v>
       </c>
       <c r="H9" s="7">
-        <v>9.9790452333698507</v>
+        <v>13.136300829244099</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J9" s="7">
-        <v>9.7608050034340508</v>
+        <v>12.1578981311437</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="L9" s="7">
-        <v>9.6631392481085303</v>
+        <v>11.8853611163543</v>
       </c>
       <c r="M9" s="7" t="s">
         <v>7</v>
@@ -8150,19 +8156,19 @@
         <v>7</v>
       </c>
       <c r="H10" s="7">
-        <v>6.96922703380943</v>
+        <v>12.009668131639399</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J10" s="7">
-        <v>6.1265418074247604</v>
+        <v>10.066247572312101</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>7</v>
       </c>
       <c r="L10" s="7">
-        <v>5.8374211842194699</v>
+        <v>8.9710578914024808</v>
       </c>
       <c r="M10" s="7" t="s">
         <v>7</v>
@@ -8191,19 +8197,19 @@
         <v>7</v>
       </c>
       <c r="H11" s="7">
-        <v>6.9894216835057801</v>
+        <v>11.993787669857101</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J11" s="7">
-        <v>6.3406966402189999</v>
+        <v>10.0711789625976</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>7</v>
       </c>
       <c r="L11" s="7">
-        <v>6.0749836520743798</v>
+        <v>8.9906560029127593</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>7</v>
@@ -8232,19 +8238,19 @@
         <v>7</v>
       </c>
       <c r="H12" s="7">
-        <v>6.9845134300980698</v>
+        <v>12.0333050095135</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J12" s="7">
-        <v>6.2860185644743201</v>
+        <v>10.0621094900463</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>7</v>
       </c>
       <c r="L12" s="7">
-        <v>5.9968979412690304</v>
+        <v>8.9870926211812492</v>
       </c>
       <c r="M12" s="7" t="s">
         <v>7</v>
@@ -8273,19 +8279,19 @@
         <v>7</v>
       </c>
       <c r="H13" s="7">
-        <v>6.9646902514491202</v>
+        <v>12.012050192889101</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J13" s="7">
-        <v>6.2067080213682901</v>
+        <v>10.0568379025254</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>7</v>
       </c>
       <c r="L13" s="7">
-        <v>5.9285846309257</v>
+        <v>8.9931426118352409</v>
       </c>
       <c r="M13" s="7" t="s">
         <v>7</v>
@@ -8314,19 +8320,19 @@
         <v>7</v>
       </c>
       <c r="H14" s="7">
-        <v>11.6844793102224</v>
+        <v>16.723812269414498</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J14" s="7">
-        <v>9.7849485269291403</v>
+        <v>14.003553600927599</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>7</v>
       </c>
       <c r="L14" s="7">
-        <v>8.7354385405186505</v>
+        <v>12.4845199236679</v>
       </c>
       <c r="M14" s="7" t="s">
         <v>7</v>
@@ -8355,19 +8361,19 @@
         <v>7</v>
       </c>
       <c r="H15" s="7">
-        <v>11.712893792350799</v>
+        <v>16.761685371766202</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J15" s="7">
-        <v>9.7777156746490004</v>
+        <v>13.9963207486475</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>7</v>
       </c>
       <c r="L15" s="7">
-        <v>8.7407167888745594</v>
+        <v>12.399469857744799</v>
       </c>
       <c r="M15" s="7" t="s">
         <v>7</v>
@@ -8396,19 +8402,19 @@
         <v>7</v>
       </c>
       <c r="H16" s="7">
-        <v>11.6900478684502</v>
+        <v>16.735807871813599</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J16" s="7">
-        <v>9.7914382732017096</v>
+        <v>14.010043347200201</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>7</v>
       </c>
       <c r="L16" s="7">
-        <v>8.7306628524664696</v>
+        <v>12.4041207485719</v>
       </c>
       <c r="M16" s="7" t="s">
         <v>7</v>
@@ -8437,19 +8443,19 @@
         <v>7</v>
       </c>
       <c r="H17" s="7">
-        <v>11.6725242723869</v>
+        <v>16.716742117466701</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J17" s="7">
-        <v>9.7786170496149101</v>
+        <v>13.997222123613399</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>7</v>
       </c>
       <c r="L17" s="7">
-        <v>8.7259497194889892</v>
+        <v>12.4114809685274</v>
       </c>
       <c r="M17" s="7" t="s">
         <v>7</v>
@@ -8478,19 +8484,19 @@
         <v>7</v>
       </c>
       <c r="H18" s="7">
-        <v>21.100736860312502</v>
+        <v>26.140013272873599</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J18" s="7">
-        <v>17.624917682888601</v>
+        <v>21.843522756887101</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>7</v>
       </c>
       <c r="L18" s="7">
-        <v>15.593071432016499</v>
+        <v>19.251824500886698</v>
       </c>
       <c r="M18" s="7" t="s">
         <v>7</v>
@@ -8519,19 +8525,19 @@
         <v>7</v>
       </c>
       <c r="H19" s="7">
-        <v>21.065769020594601</v>
+        <v>26.105045433155698</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J19" s="7">
-        <v>17.6448314307953</v>
+        <v>21.8634365047938</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>7</v>
       </c>
       <c r="L19" s="7">
-        <v>15.5705039810162</v>
+        <v>19.229257049886499</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>7</v>
@@ -8560,19 +8566,19 @@
         <v>7</v>
       </c>
       <c r="H20" s="7">
-        <v>21.0725091324523</v>
+        <v>26.111785545013401</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J20" s="7">
-        <v>17.628989451261798</v>
+        <v>21.847594525260401</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>7</v>
       </c>
       <c r="L20" s="7">
-        <v>15.570281834505201</v>
+        <v>19.2290349033754</v>
       </c>
       <c r="M20" s="7" t="s">
         <v>7</v>
@@ -8601,19 +8607,19 @@
         <v>7</v>
       </c>
       <c r="H21" s="7">
-        <v>21.049095392353799</v>
+        <v>26.0883718049149</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J21" s="7">
-        <v>17.6443691483463</v>
+        <v>21.8629742223448</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>7</v>
       </c>
       <c r="L21" s="7">
-        <v>15.5712883185368</v>
+        <v>19.230041387407098</v>
       </c>
       <c r="M21" s="7" t="s">
         <v>7</v>
@@ -8642,19 +8648,19 @@
         <v>7</v>
       </c>
       <c r="H22" s="7">
-        <v>39.853805149044199</v>
+        <v>44.8917605929134</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J22" s="7">
-        <v>33.339068427609298</v>
+        <v>37.557673501607802</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>7</v>
       </c>
       <c r="L22" s="7">
-        <v>29.226191188786</v>
+        <v>32.884944257656201</v>
       </c>
       <c r="M22" s="7" t="s">
         <v>7</v>
@@ -8683,19 +8689,19 @@
         <v>7</v>
       </c>
       <c r="H23" s="7">
-        <v>39.878349189968297</v>
+        <v>44.917625602529398</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J23" s="7">
-        <v>33.350345313476403</v>
+        <v>37.568950387474999</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>7</v>
       </c>
       <c r="L23" s="7">
-        <v>29.134593691322799</v>
+        <v>32.793346760193003</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>7</v>
@@ -8724,19 +8730,19 @@
         <v>7</v>
       </c>
       <c r="H24" s="7">
-        <v>39.879731995375401</v>
+        <v>44.919008407936502</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J24" s="7">
-        <v>33.3563008158673</v>
+        <v>37.574905889865803</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>7</v>
       </c>
       <c r="L24" s="7">
-        <v>29.205592002365599</v>
+        <v>32.864345071235803</v>
       </c>
       <c r="M24" s="7" t="s">
         <v>7</v>
@@ -8765,19 +8771,19 @@
         <v>7</v>
       </c>
       <c r="H25" s="7">
-        <v>39.818234244431601</v>
+        <v>44.856189688300901</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J25" s="7">
-        <v>33.374707415627299</v>
+        <v>37.593312489625902</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>7</v>
       </c>
       <c r="L25" s="7">
-        <v>29.206816609594799</v>
+        <v>32.865569678465</v>
       </c>
       <c r="M25" s="7" t="s">
         <v>7</v>
@@ -8806,19 +8812,19 @@
         <v>7</v>
       </c>
       <c r="H26" s="6">
-        <v>77.373493564411604</v>
+        <v>82.411449008280897</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J26" s="6">
-        <v>64.777040550873394</v>
+        <v>68.995645624871898</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L26" s="6">
-        <v>56.523392186042102</v>
+        <v>60.182145254912299</v>
       </c>
       <c r="M26" s="6" t="s">
         <v>7</v>
@@ -8847,19 +8853,19 @@
         <v>7</v>
       </c>
       <c r="H27" s="6">
-        <v>77.416453191175705</v>
+        <v>82.454408635044899</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J27" s="6">
-        <v>64.7888428330577</v>
+        <v>69.007447907056303</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L27" s="6">
-        <v>56.4970948551858</v>
+        <v>60.155847924055998</v>
       </c>
       <c r="M27" s="6" t="s">
         <v>7</v>
@@ -8888,19 +8894,19 @@
         <v>7</v>
       </c>
       <c r="H28" s="6">
-        <v>77.417171114220807</v>
+        <v>82.4551265580901</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J28" s="6">
-        <v>64.776013678327899</v>
+        <v>68.994618752326403</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L28" s="6">
-        <v>56.497789338704401</v>
+        <v>60.156542407574598</v>
       </c>
       <c r="M28" s="6" t="s">
         <v>7</v>
@@ -8929,19 +8935,19 @@
         <v>7</v>
       </c>
       <c r="H29" s="8">
-        <v>77.403392949237997</v>
+        <v>82.441348393107305</v>
       </c>
       <c r="I29" s="8" t="s">
         <v>7</v>
       </c>
       <c r="J29" s="8">
-        <v>64.761732547000705</v>
+        <v>68.980337620999293</v>
       </c>
       <c r="K29" s="8" t="s">
         <v>7</v>
       </c>
       <c r="L29" s="8">
-        <v>56.483687922831798</v>
+        <v>60.142440991702003</v>
       </c>
       <c r="M29" s="8" t="s">
         <v>7</v>
@@ -8970,19 +8976,19 @@
         <v>7</v>
       </c>
       <c r="H30" s="6">
-        <v>152.45707914155</v>
+        <v>157.49503458541901</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J30" s="6">
-        <v>127.65302520189999</v>
+        <v>131.87163027589801</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L30" s="6">
-        <v>111.02063443724499</v>
+        <v>114.67938750611501</v>
       </c>
       <c r="M30" s="6" t="s">
         <v>7</v>
@@ -9011,19 +9017,19 @@
         <v>7</v>
       </c>
       <c r="H31" s="6">
-        <v>152.51475652974099</v>
+        <v>157.55271197361</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J31" s="6">
-        <v>127.65749642197601</v>
+        <v>131.87610149597401</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L31" s="6">
-        <v>110.984591240328</v>
+        <v>114.643344309198</v>
       </c>
       <c r="M31" s="6" t="s">
         <v>7</v>
@@ -9052,19 +9058,19 @@
         <v>7</v>
       </c>
       <c r="H32" s="6">
-        <v>152.50430390905601</v>
+        <v>157.54225935292499</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J32" s="6">
-        <v>127.651118922425</v>
+        <v>131.869723996424</v>
       </c>
       <c r="K32" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L32" s="6">
-        <v>111.022533888262</v>
+        <v>114.681286957132</v>
       </c>
       <c r="M32" s="6" t="s">
         <v>7</v>
@@ -9093,19 +9099,19 @@
         <v>7</v>
       </c>
       <c r="H33" s="6">
-        <v>152.47254730682801</v>
+        <v>157.51050275069699</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J33" s="6">
-        <v>127.645870983047</v>
+        <v>131.86447605704601</v>
       </c>
       <c r="K33" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L33" s="6">
-        <v>110.95662187997701</v>
+        <v>114.61537494884701</v>
       </c>
       <c r="M33" s="6" t="s">
         <v>7</v>
@@ -9142,7 +9148,7 @@
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="0"/>
-        <v>13.599353457472125</v>
+        <v>16.444560366330826</v>
       </c>
       <c r="I35" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -9150,7 +9156,7 @@
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="0"/>
-        <v>13.479081892934051</v>
+        <v>15.859126563147376</v>
       </c>
       <c r="K35" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -9158,7 +9164,7 @@
       </c>
       <c r="L35">
         <f t="shared" ca="1" si="0"/>
-        <v>13.265440113760125</v>
+        <v>15.53762529197755</v>
       </c>
       <c r="M35" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -9167,7 +9173,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36">
-        <f t="shared" ref="A36:M43" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-35)*4,0,4,1))</f>
+        <f t="shared" ref="A36:M42" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-35)*4,0,4,1))</f>
         <v>2</v>
       </c>
       <c r="B36">
@@ -9196,7 +9202,7 @@
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="1"/>
-        <v>10.015288314462648</v>
+        <v>13.211613355325674</v>
       </c>
       <c r="I36" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -9204,7 +9210,7 @@
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="1"/>
-        <v>9.8004447148140557</v>
+        <v>12.197537842523651</v>
       </c>
       <c r="K36" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -9212,7 +9218,7 @@
       </c>
       <c r="L36">
         <f t="shared" ca="1" si="1"/>
-        <v>9.7042724705252468</v>
+        <v>11.928112786238049</v>
       </c>
       <c r="M36" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -9250,7 +9256,7 @@
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="1"/>
-        <v>6.9769630997155998</v>
+        <v>12.012202750974774</v>
       </c>
       <c r="I37" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -9258,7 +9264,7 @@
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2399912583715924</v>
+        <v>10.06409348187035</v>
       </c>
       <c r="K37" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -9266,7 +9272,7 @@
       </c>
       <c r="L37">
         <f t="shared" ca="1" si="1"/>
-        <v>5.9594718521221441</v>
+        <v>8.9854872818329312</v>
       </c>
       <c r="M37" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -9304,7 +9310,7 @@
       </c>
       <c r="H38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>11.689986310852575</v>
+        <v>16.73451190761525</v>
       </c>
       <c r="I38" s="2" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -9312,7 +9318,7 @@
       </c>
       <c r="J38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9.7831798810986896</v>
+        <v>14.001784955097175</v>
       </c>
       <c r="K38" s="2" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -9320,7 +9326,7 @@
       </c>
       <c r="L38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7331919753371672</v>
+        <v>12.424897874628</v>
       </c>
       <c r="M38" s="2" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -9358,7 +9364,7 @@
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="1"/>
-        <v>21.072027601428303</v>
+        <v>26.1113040139894</v>
       </c>
       <c r="I39" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -9366,7 +9372,7 @@
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="1"/>
-        <v>17.635776928323001</v>
+        <v>21.854382002321525</v>
       </c>
       <c r="K39" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -9374,7 +9380,7 @@
       </c>
       <c r="L39">
         <f t="shared" ca="1" si="1"/>
-        <v>15.576286391518675</v>
+        <v>19.235039460388926</v>
       </c>
       <c r="M39" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -9412,7 +9418,7 @@
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="1"/>
-        <v>39.857530144704874</v>
+        <v>44.896146072920047</v>
       </c>
       <c r="I40" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -9420,7 +9426,7 @@
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="1"/>
-        <v>33.355105493145075</v>
+        <v>37.573710567143621</v>
       </c>
       <c r="K40" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -9428,7 +9434,7 @@
       </c>
       <c r="L40">
         <f t="shared" ca="1" si="1"/>
-        <v>29.193298373017299</v>
+        <v>32.852051441887504</v>
       </c>
       <c r="M40" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -9466,7 +9472,7 @@
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="1"/>
-        <v>77.402627704761528</v>
+        <v>82.440583148630807</v>
       </c>
       <c r="I41" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -9474,7 +9480,7 @@
       </c>
       <c r="J41">
         <f t="shared" ca="1" si="1"/>
-        <v>64.775907402314928</v>
+        <v>68.994512476313474</v>
       </c>
       <c r="K41" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -9482,7 +9488,7 @@
       </c>
       <c r="L41">
         <f t="shared" ca="1" si="1"/>
-        <v>56.500491075691023</v>
+        <v>60.159244144561228</v>
       </c>
       <c r="M41" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -9520,7 +9526,7 @@
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="1"/>
-        <v>152.48717172179374</v>
+        <v>157.52512716566275</v>
       </c>
       <c r="I42" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -9528,7 +9534,7 @@
       </c>
       <c r="J42">
         <f t="shared" ca="1" si="1"/>
-        <v>127.651877882337</v>
+        <v>131.87048295633551</v>
       </c>
       <c r="K42" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -9536,7 +9542,7 @@
       </c>
       <c r="L42">
         <f t="shared" ca="1" si="1"/>
-        <v>110.996095361453</v>
+        <v>114.654848430323</v>
       </c>
       <c r="M42" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -9552,8 +9558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C910F4E5-1871-5D44-A4D1-B4921F11A929}">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M38" sqref="A38:M38"/>
+    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9626,19 +9632,19 @@
         <v>7</v>
       </c>
       <c r="H2" s="7">
-        <v>13.561259652159</v>
+        <v>16.406466561017702</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="7">
-        <v>13.392242344967199</v>
+        <v>15.7778052943186</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="L2" s="7">
-        <v>13.1998313189459</v>
+        <v>15.490077938152201</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>7</v>
@@ -9667,19 +9673,19 @@
         <v>7</v>
       </c>
       <c r="H3" s="7">
-        <v>13.646623993894799</v>
+        <v>16.491830902753598</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="7">
-        <v>13.4822603614942</v>
+        <v>15.879353489203799</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="L3" s="7">
-        <v>13.271170082433001</v>
+        <v>15.589177097393</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>7</v>
@@ -9708,19 +9714,19 @@
         <v>7</v>
       </c>
       <c r="H4" s="7">
-        <v>13.517255211851401</v>
+        <v>16.362462120710099</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J4" s="7">
-        <v>13.434198292843201</v>
+        <v>15.797194505560199</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="L4" s="7">
-        <v>13.2380631686163</v>
+        <v>15.4490871086845</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>7</v>
@@ -9749,19 +9755,19 @@
         <v>7</v>
       </c>
       <c r="H5" s="7">
-        <v>13.5002731332991</v>
+        <v>16.345480042157899</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="7">
-        <v>13.4221610156215</v>
+        <v>15.7851572283385</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="L5" s="7">
-        <v>13.2283728838873</v>
+        <v>15.4370975151786</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>7</v>
@@ -9792,19 +9798,19 @@
         <v>7</v>
       </c>
       <c r="H6" s="7">
-        <v>9.9296305986652609</v>
+        <v>13.1704981597189</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="7">
-        <v>9.7104695961769707</v>
+        <v>12.1075627238866</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="L6" s="7">
-        <v>9.6090101244207897</v>
+        <v>11.8312319926666</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>7</v>
@@ -9833,19 +9839,19 @@
         <v>7</v>
       </c>
       <c r="H7" s="7">
-        <v>9.9229629846821101</v>
+        <v>13.0991299422507</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J7" s="7">
-        <v>9.6954325363930298</v>
+        <v>12.092525664102601</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="L7" s="7">
-        <v>9.5913981439825502</v>
+        <v>11.8136200122284</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>7</v>
@@ -9874,19 +9880,19 @@
         <v>7</v>
       </c>
       <c r="H8" s="7">
-        <v>9.9405582758198001</v>
+        <v>13.113674429250199</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J8" s="7">
-        <v>9.7216952965553904</v>
+        <v>12.118788424265</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="L8" s="7">
-        <v>9.65619506857362</v>
+        <v>11.8784169368194</v>
       </c>
       <c r="M8" s="7" t="s">
         <v>7</v>
@@ -9915,349 +9921,349 @@
         <v>7</v>
       </c>
       <c r="H9" s="7">
-        <v>9.9476340624103798</v>
+        <v>13.145481375051</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J9" s="7">
-        <v>9.7107537911232598</v>
+        <v>12.1078469188329</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="L9" s="7">
-        <v>9.5909015078925801</v>
+        <v>11.816334169332899</v>
       </c>
       <c r="M9" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="A10" s="4">
         <v>4</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>7.4010775896410103E-3</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>7.6363179238235698E-3</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="4">
         <v>73</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>1</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>4.1982421875</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="8">
-        <v>7.0082635229322996</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="8">
-        <v>5.8346522694818397</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="8">
-        <v>5.3074098186088099</v>
-      </c>
-      <c r="M10" s="8" t="s">
+      <c r="G10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="7">
+        <v>12.0570551023477</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="7">
+        <v>10.053257343480301</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="7">
+        <v>8.9904378350117202</v>
+      </c>
+      <c r="M10" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <v>4</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>7.50512576599915E-3</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>6.8863996829678998E-3</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="4">
         <v>74</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>1</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>4.1982421875</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="8">
-        <v>6.9813642084157497</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="8">
-        <v>5.8530673815302299</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11" s="8">
-        <v>5.2636106566978</v>
-      </c>
-      <c r="M11" s="8" t="s">
+      <c r="G11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="7">
+        <v>12.008485327755199</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="7">
+        <v>10.0716724555287</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="7">
+        <v>8.9892939473726692</v>
+      </c>
+      <c r="M11" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="A12" s="4">
         <v>4</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>7.5055641457438399E-3</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>7.4630089232975497E-3</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="4">
         <v>75</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>1</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>4.1982421875</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="8">
-        <v>6.9888493103776099</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="8">
-        <v>5.8428647315494402</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L12" s="8">
-        <v>5.3938272053376304</v>
-      </c>
-      <c r="M12" s="8" t="s">
+      <c r="G12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="7">
+        <v>12.037640889793</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="7">
+        <v>10.061469805548001</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="7">
+        <v>8.9859464760162808</v>
+      </c>
+      <c r="M12" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="A13" s="4">
         <v>4</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>7.5160246330002898E-3</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>7.3686876245080699E-3</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="4">
         <v>76</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>1</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <v>4.1982421875</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="8">
-        <v>7.0105336850378599</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="8">
-        <v>5.8491745164982696</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13" s="8">
-        <v>5.4629719810081001</v>
-      </c>
-      <c r="M13" s="8" t="s">
+      <c r="G13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="7">
+        <v>12.0593252644533</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="7">
+        <v>10.0677795904968</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="7">
+        <v>8.9789215545394399</v>
+      </c>
+      <c r="M13" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+      <c r="A14" s="2">
         <v>8</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="11">
         <v>6.4562729199727298E-3</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="11">
         <v>6.5031742052908204E-3</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="2">
         <v>77</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="8">
         <v>1</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="8">
         <v>8.396484375</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="7">
-        <v>11.6796554484563</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="7">
-        <v>9.7657778813047393</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L14" s="7">
-        <v>8.72848509991206</v>
-      </c>
-      <c r="M14" s="7" t="s">
+      <c r="G14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="8">
+        <v>16.728447027871699</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="8">
+        <v>13.9843829553033</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="8">
+        <v>12.477566483061301</v>
+      </c>
+      <c r="M14" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="A15" s="2">
         <v>8</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="11">
         <v>6.5003480526308203E-3</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="11">
         <v>6.46497666875415E-3</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="2">
         <v>78</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="8">
         <v>1</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="8">
         <v>8.396484375</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="7">
-        <v>11.6795770571725</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J15" s="7">
-        <v>9.7788251145286598</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L15" s="7">
-        <v>8.7303605749610806</v>
-      </c>
-      <c r="M15" s="7" t="s">
+      <c r="G15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="8">
+        <v>16.726414822550801</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="8">
+        <v>13.997430188527201</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" s="8">
+        <v>12.401676868729201</v>
+      </c>
+      <c r="M15" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+      <c r="A16" s="2">
         <v>8</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="11">
         <v>6.45803068578243E-3</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="11">
         <v>6.3495260286838403E-3</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="2">
         <v>79</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="8">
         <v>1</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="8">
         <v>8.396484375</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="7">
-        <v>11.700500440706501</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J16" s="7">
-        <v>9.7818635581536295</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L16" s="7">
-        <v>8.7307776286605705</v>
-      </c>
-      <c r="M16" s="7" t="s">
+      <c r="G16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="8">
+        <v>16.748923413964299</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="8">
+        <v>14.000468632152099</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="8">
+        <v>12.434585815004899</v>
+      </c>
+      <c r="M16" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+      <c r="A17" s="2">
         <v>8</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="11">
         <v>6.4740209331115E-3</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="11">
         <v>6.3889781062669501E-3</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="2">
         <v>80</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="8">
         <v>1</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="8">
         <v>8.396484375</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="7">
-        <v>11.6729619275138</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J17" s="7">
-        <v>9.7816348029775604</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L17" s="7">
-        <v>8.7139506935480906</v>
-      </c>
-      <c r="M17" s="7" t="s">
+      <c r="G17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="8">
+        <v>16.712238340074901</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="8">
+        <v>14.000239876976099</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17" s="8">
+        <v>12.463032076697299</v>
+      </c>
+      <c r="M17" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -10284,19 +10290,19 @@
         <v>7</v>
       </c>
       <c r="H18" s="7">
-        <v>21.0914122575298</v>
+        <v>26.130688670090802</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J18" s="7">
-        <v>17.624506377311999</v>
+        <v>21.843111451310602</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>7</v>
       </c>
       <c r="L18" s="7">
-        <v>15.6184479903203</v>
+        <v>19.277201059190499</v>
       </c>
       <c r="M18" s="7" t="s">
         <v>7</v>
@@ -10325,19 +10331,19 @@
         <v>7</v>
       </c>
       <c r="H19" s="7">
-        <v>21.061216049022899</v>
+        <v>26.100492461584</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J19" s="7">
-        <v>17.634935491415298</v>
+        <v>21.853540565413901</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>7</v>
       </c>
       <c r="L19" s="7">
-        <v>15.610446245573099</v>
+        <v>19.269199314443402</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>7</v>
@@ -10366,19 +10372,19 @@
         <v>7</v>
       </c>
       <c r="H20" s="7">
-        <v>21.067301895596099</v>
+        <v>26.106578308157101</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J20" s="7">
-        <v>17.6225826187754</v>
+        <v>21.841187692774</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>7</v>
       </c>
       <c r="L20" s="7">
-        <v>15.6125789593678</v>
+        <v>19.271332028238099</v>
       </c>
       <c r="M20" s="7" t="s">
         <v>7</v>
@@ -10407,19 +10413,19 @@
         <v>7</v>
       </c>
       <c r="H21" s="7">
-        <v>21.071170084305098</v>
+        <v>26.1102721598856</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J21" s="7">
-        <v>17.631652866187199</v>
+        <v>21.850257940185699</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>7</v>
       </c>
       <c r="L21" s="7">
-        <v>15.6117036949616</v>
+        <v>19.270456763831898</v>
       </c>
       <c r="M21" s="7" t="s">
         <v>7</v>
@@ -10448,19 +10454,19 @@
         <v>7</v>
       </c>
       <c r="H22" s="7">
-        <v>39.8578688701107</v>
+        <v>44.896841397142197</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J22" s="7">
-        <v>33.350764136688802</v>
+        <v>37.569369210687299</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>7</v>
       </c>
       <c r="L22" s="7">
-        <v>29.206047173235401</v>
+        <v>32.864800242105602</v>
       </c>
       <c r="M22" s="7" t="s">
         <v>7</v>
@@ -10489,19 +10495,19 @@
         <v>7</v>
       </c>
       <c r="H23" s="7">
-        <v>39.847295244546103</v>
+        <v>44.886571657107197</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J23" s="7">
-        <v>33.348016895281198</v>
+        <v>37.566621969279701</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>7</v>
       </c>
       <c r="L23" s="7">
-        <v>29.2215531725621</v>
+        <v>32.880306241432301</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>7</v>
@@ -10530,19 +10536,19 @@
         <v>7</v>
       </c>
       <c r="H24" s="7">
-        <v>39.876878147335297</v>
+        <v>44.916154559896398</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J24" s="7">
-        <v>33.349634241240103</v>
+        <v>37.568239315238699</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>7</v>
       </c>
       <c r="L24" s="7">
-        <v>29.257542993519301</v>
+        <v>32.916296062389499</v>
       </c>
       <c r="M24" s="7" t="s">
         <v>7</v>
@@ -10571,19 +10577,19 @@
         <v>7</v>
       </c>
       <c r="H25" s="7">
-        <v>39.852285886253497</v>
+        <v>44.890241330122699</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J25" s="7">
-        <v>33.347913194375103</v>
+        <v>37.566518268373699</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>7</v>
       </c>
       <c r="L25" s="7">
-        <v>29.2723353166318</v>
+        <v>32.931088385502001</v>
       </c>
       <c r="M25" s="7" t="s">
         <v>7</v>
@@ -10612,19 +10618,19 @@
         <v>7</v>
       </c>
       <c r="H26" s="6">
-        <v>77.371998694821798</v>
+        <v>82.409954138691106</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J26" s="6">
-        <v>64.766283059880806</v>
+        <v>68.984888133879394</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L26" s="6">
-        <v>56.532363042708603</v>
+        <v>60.1911161115789</v>
       </c>
       <c r="M26" s="6" t="s">
         <v>7</v>
@@ -10653,19 +10659,19 @@
         <v>7</v>
       </c>
       <c r="H27" s="6">
-        <v>77.367303946151907</v>
+        <v>82.4052593900212</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J27" s="6">
-        <v>64.782128198460398</v>
+        <v>69.000733272459001</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L27" s="6">
-        <v>56.481994137641202</v>
+        <v>60.140747206511399</v>
       </c>
       <c r="M27" s="6" t="s">
         <v>7</v>
@@ -10694,62 +10700,62 @@
         <v>7</v>
       </c>
       <c r="H28" s="6">
-        <v>77.383818374111897</v>
+        <v>82.421773817981105</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J28" s="6">
-        <v>64.781982275114103</v>
+        <v>69.000587349112706</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L28" s="6">
-        <v>56.452466443654302</v>
+        <v>60.111219512524599</v>
       </c>
       <c r="M28" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
+      <c r="A29" s="4">
         <v>64</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="10">
         <v>6.46245514477292E-3</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="10">
         <v>6.3969811840735797E-3</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="4">
         <v>92</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="7">
         <v>1</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="7">
         <v>67.171875</v>
       </c>
-      <c r="G29" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H29" s="8">
-        <v>77.380924166276699</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J29" s="8">
-        <v>64.773302065596695</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L29" s="8">
-        <v>56.4755958174431</v>
-      </c>
-      <c r="M29" s="8" t="s">
+      <c r="G29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="7">
+        <v>82.418879610145893</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" s="7">
+        <v>68.991907139595199</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L29" s="7">
+        <v>60.134348886313397</v>
+      </c>
+      <c r="M29" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -10776,19 +10782,19 @@
         <v>7</v>
       </c>
       <c r="H30" s="6">
-        <v>152.481303907148</v>
+        <v>157.51925935101801</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J30" s="6">
-        <v>127.64501985852201</v>
+        <v>131.86362493252099</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L30" s="6">
-        <v>111.071823532027</v>
+        <v>114.730576600897</v>
       </c>
       <c r="M30" s="6" t="s">
         <v>7</v>
@@ -10817,19 +10823,19 @@
         <v>7</v>
       </c>
       <c r="H31" s="6">
-        <v>152.455404452197</v>
+        <v>157.49335989606601</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J31" s="6">
-        <v>127.64969406966701</v>
+        <v>131.86829914366501</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L31" s="6">
-        <v>110.983617985886</v>
+        <v>114.642371054756</v>
       </c>
       <c r="M31" s="6" t="s">
         <v>7</v>
@@ -10858,19 +10864,19 @@
         <v>7</v>
       </c>
       <c r="H32" s="6">
-        <v>152.456394828073</v>
+        <v>157.49435027194301</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J32" s="6">
-        <v>127.642246893985</v>
+        <v>131.860851967983</v>
       </c>
       <c r="K32" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L32" s="6">
-        <v>111.02490022246199</v>
+        <v>114.68365329133201</v>
       </c>
       <c r="M32" s="6" t="s">
         <v>7</v>
@@ -10899,19 +10905,19 @@
         <v>7</v>
       </c>
       <c r="H33" s="6">
-        <v>152.48603673946101</v>
+        <v>157.52399218332999</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J33" s="6">
-        <v>127.64827019293401</v>
+        <v>131.866875266932</v>
       </c>
       <c r="K33" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L33" s="6">
-        <v>111.024916256111</v>
+        <v>114.68366932498201</v>
       </c>
       <c r="M33" s="6" t="s">
         <v>7</v>
@@ -10948,7 +10954,7 @@
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="0"/>
-        <v>13.556352997801074</v>
+        <v>16.401559906659823</v>
       </c>
       <c r="I35" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -10956,7 +10962,7 @@
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="0"/>
-        <v>13.432715503731524</v>
+        <v>15.809877629355274</v>
       </c>
       <c r="K35" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -10964,7 +10970,7 @@
       </c>
       <c r="L35">
         <f t="shared" ca="1" si="0"/>
-        <v>13.234359363470624</v>
+        <v>15.491359914852076</v>
       </c>
       <c r="M35" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -10973,7 +10979,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36">
-        <f t="shared" ref="A36:M43" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-35)*4,0,4,1))</f>
+        <f t="shared" ref="A36:M42" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-35)*4,0,4,1))</f>
         <v>2</v>
       </c>
       <c r="B36">
@@ -11002,7 +11008,7 @@
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="1"/>
-        <v>9.9351964803943886</v>
+        <v>13.132195976567699</v>
       </c>
       <c r="I36" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -11010,7 +11016,7 @@
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="1"/>
-        <v>9.7095878050621618</v>
+        <v>12.106680932771775</v>
       </c>
       <c r="K36" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -11018,7 +11024,7 @@
       </c>
       <c r="L36">
         <f t="shared" ca="1" si="1"/>
-        <v>9.6118762112173854</v>
+        <v>11.834900777761824</v>
       </c>
       <c r="M36" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -11056,7 +11062,7 @@
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="1"/>
-        <v>6.9972526816908802</v>
+        <v>12.040626646087299</v>
       </c>
       <c r="I37" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -11064,7 +11070,7 @@
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8449397247649451</v>
+        <v>10.06354479876345</v>
       </c>
       <c r="K37" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -11072,7 +11078,7 @@
       </c>
       <c r="L37">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3569549154130849</v>
+        <v>8.986149953235028</v>
       </c>
       <c r="M37" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -11110,7 +11116,7 @@
       </c>
       <c r="H38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>11.683173718462275</v>
+        <v>16.729005901115425</v>
       </c>
       <c r="I38" s="2" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -11118,7 +11124,7 @@
       </c>
       <c r="J38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9.777025339241149</v>
+        <v>13.995630413239674</v>
       </c>
       <c r="K38" s="2" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -11126,7 +11132,7 @@
       </c>
       <c r="L38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.72589349927045</v>
+        <v>12.444215310873176</v>
       </c>
       <c r="M38" s="2" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -11164,7 +11170,7 @@
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="1"/>
-        <v>21.072775071613474</v>
+        <v>26.112007899929374</v>
       </c>
       <c r="I39" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -11172,7 +11178,7 @@
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="1"/>
-        <v>17.628419338422471</v>
+        <v>21.84702441242105</v>
       </c>
       <c r="K39" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -11180,7 +11186,7 @@
       </c>
       <c r="L39">
         <f t="shared" ca="1" si="1"/>
-        <v>15.6132942225557</v>
+        <v>19.272047291425974</v>
       </c>
       <c r="M39" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -11218,7 +11224,7 @@
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="1"/>
-        <v>39.858582037061403</v>
+        <v>44.897452236067124</v>
       </c>
       <c r="I40" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -11226,7 +11232,7 @@
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="1"/>
-        <v>33.349082116896305</v>
+        <v>37.567687190894844</v>
       </c>
       <c r="K40" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -11234,7 +11240,7 @@
       </c>
       <c r="L40">
         <f t="shared" ca="1" si="1"/>
-        <v>29.239369663987148</v>
+        <v>32.898122732857352</v>
       </c>
       <c r="M40" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -11272,7 +11278,7 @@
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="1"/>
-        <v>77.376011295340575</v>
+        <v>82.413966739209826</v>
       </c>
       <c r="I41" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -11280,7 +11286,7 @@
       </c>
       <c r="J41">
         <f t="shared" ca="1" si="1"/>
-        <v>64.775923899763001</v>
+        <v>68.994528973761575</v>
       </c>
       <c r="K41" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -11288,7 +11294,7 @@
       </c>
       <c r="L41">
         <f t="shared" ca="1" si="1"/>
-        <v>56.485604860361804</v>
+        <v>60.144357929232079</v>
       </c>
       <c r="M41" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -11326,7 +11332,7 @@
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="1"/>
-        <v>152.46978498171976</v>
+        <v>157.50774042558925</v>
       </c>
       <c r="I42" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -11334,7 +11340,7 @@
       </c>
       <c r="J42">
         <f t="shared" ca="1" si="1"/>
-        <v>127.64630775377699</v>
+        <v>131.86491282777524</v>
       </c>
       <c r="K42" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -11342,7 +11348,7 @@
       </c>
       <c r="L42">
         <f t="shared" ca="1" si="1"/>
-        <v>111.0263144991215</v>
+        <v>114.68506756799175</v>
       </c>
       <c r="M42" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -11358,8 +11364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F26A9CE-0C1E-AF48-A07D-15710713DB1F}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13169,8 +13175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F5A6AC-C536-6146-8F68-4021A88D57DE}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14645,109 +14651,109 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
+      <c r="A37" s="5">
         <f t="shared" ca="1" si="1"/>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="10">
         <f t="shared" ca="1" si="1"/>
         <v>6.6717922671430474E-3</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="10">
         <f t="shared" ca="1" si="1"/>
         <v>6.7077804569828665E-3</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="5">
         <f t="shared" ca="1" si="1"/>
         <v>330.5</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="7">
         <f t="shared" ca="1" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="7">
         <f t="shared" ca="1" si="1"/>
         <v>156.22433090209898</v>
       </c>
-      <c r="G37" s="8" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H37" s="8" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I37" s="8" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J37" s="8" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K37" s="8" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L37" s="8" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M37" s="8" t="e">
+      <c r="G37" s="7" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H37" s="7" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I37" s="7" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J37" s="7" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K37" s="7" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L37" s="7" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M37" s="7" t="e">
         <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+      <c r="A38" s="3">
         <f t="shared" ca="1" si="1"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="11">
         <f t="shared" ca="1" si="1"/>
         <v>6.6579571216703977E-3</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="11">
         <f t="shared" ca="1" si="1"/>
         <v>6.6972447972883349E-3</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="3">
         <f t="shared" ca="1" si="1"/>
         <v>334.5</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>134.77271842956475</v>
       </c>
-      <c r="G38" s="6" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H38" s="6" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I38" s="6" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J38" s="6" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K38" s="6" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L38" s="6" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M38" s="6" t="e">
+      <c r="G38" s="8" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H38" s="8" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I38" s="8" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J38" s="8" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K38" s="8" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L38" s="8" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M38" s="8" t="e">
         <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -14983,8 +14989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9902717B-D473-4C4C-BD56-0A1D1459D334}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15058,22 +15064,22 @@
         <v>40.998837863671703</v>
       </c>
       <c r="H2" s="7">
-        <v>352.34876909157401</v>
+        <v>357.38672453544302</v>
       </c>
       <c r="I2" s="7">
-        <v>48.139871980442699</v>
+        <v>53.1778274243119</v>
       </c>
       <c r="J2" s="7">
-        <v>295.00726645296902</v>
+        <v>299.22587152696798</v>
       </c>
       <c r="K2" s="7">
-        <v>40.2735334521685</v>
+        <v>44.492138526167103</v>
       </c>
       <c r="L2" s="7">
-        <v>256.13454255676498</v>
+        <v>259.79329562563601</v>
       </c>
       <c r="M2" s="7">
-        <v>35.206579162917997</v>
+        <v>38.865332231788301</v>
       </c>
       <c r="N2" s="4"/>
     </row>
@@ -15100,22 +15106,22 @@
         <v>33.922917170162101</v>
       </c>
       <c r="H3" s="7">
-        <v>304.63965313712498</v>
+        <v>309.67760858099399</v>
       </c>
       <c r="I3" s="7">
-        <v>40.260207976200597</v>
+        <v>45.298163420069898</v>
       </c>
       <c r="J3" s="7">
-        <v>255.03667453068601</v>
+        <v>259.25527960468401</v>
       </c>
       <c r="K3" s="7">
-        <v>33.654710906129502</v>
+        <v>37.873315980128098</v>
       </c>
       <c r="L3" s="7">
-        <v>221.60688322262399</v>
+        <v>225.26563629149399</v>
       </c>
       <c r="M3" s="7">
-        <v>29.604568572171399</v>
+        <v>33.2633216410416</v>
       </c>
       <c r="N3" s="2"/>
     </row>
@@ -15142,22 +15148,22 @@
         <v>36.770368283257902</v>
       </c>
       <c r="H4" s="7">
-        <v>237.49135219496301</v>
+        <v>242.52930763883199</v>
       </c>
       <c r="I4" s="7">
-        <v>43.388520757265098</v>
+        <v>48.426476201134399</v>
       </c>
       <c r="J4" s="7">
-        <v>198.86040217279</v>
+        <v>203.079007246788</v>
       </c>
       <c r="K4" s="7">
-        <v>36.325580516711703</v>
+        <v>40.5441855907102</v>
       </c>
       <c r="L4" s="7">
-        <v>172.88289134301101</v>
+        <v>176.54164441188101</v>
       </c>
       <c r="M4" s="7">
-        <v>31.918101536602599</v>
+        <v>35.576854605472903</v>
       </c>
       <c r="N4" s="4"/>
     </row>
@@ -15184,22 +15190,22 @@
         <v>44.238907702687797</v>
       </c>
       <c r="H5" s="7">
-        <v>259.42566905107498</v>
+        <v>264.46362449494399</v>
       </c>
       <c r="I5" s="7">
-        <v>51.757434007318999</v>
+        <v>56.7953894511882</v>
       </c>
       <c r="J5" s="7">
-        <v>217.18212064922901</v>
+        <v>221.40072572322799</v>
       </c>
       <c r="K5" s="7">
-        <v>43.288111497160898</v>
+        <v>47.506716571159501</v>
       </c>
       <c r="L5" s="7">
-        <v>188.630840629689</v>
+        <v>192.289593698559</v>
       </c>
       <c r="M5" s="7">
-        <v>37.814343592617398</v>
+        <v>41.473096661487702</v>
       </c>
       <c r="N5" s="4"/>
     </row>
@@ -16382,27 +16388,27 @@
       </c>
       <c r="H35" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>288.47636086868425</v>
+        <v>293.51431631255326</v>
       </c>
       <c r="I35" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>45.886508680306854</v>
+        <v>50.924464124176097</v>
       </c>
       <c r="J35" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>241.52161595141851</v>
+        <v>245.74022102541701</v>
       </c>
       <c r="K35" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>38.385484093042649</v>
+        <v>42.604089167041224</v>
       </c>
       <c r="L35" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>209.81378943802227</v>
+        <v>213.47254250689249</v>
       </c>
       <c r="M35" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>33.635898216077351</v>
+        <v>37.294651284947626</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -16798,8 +16804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40ADBCB-FBE6-7547-ADA9-23095BA43DDE}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:N33"/>
+    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18438,109 +18444,109 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+      <c r="A40" s="3">
         <f t="shared" ca="1" si="1"/>
         <v>1E-3</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="11">
         <f t="shared" ca="1" si="1"/>
         <v>1.5142184625221176E-2</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="11">
         <f t="shared" ca="1" si="1"/>
         <v>1.3840949961648048E-2</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="3">
         <f t="shared" ca="1" si="1"/>
         <v>214.5</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>187.02973175048777</v>
       </c>
-      <c r="G40" s="6" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H40" s="6" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I40" s="6" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J40" s="6" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K40" s="6" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L40" s="6" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M40" s="6" t="e">
+      <c r="G40" s="8" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H40" s="8" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I40" s="8" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J40" s="8" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K40" s="8" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L40" s="8" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M40" s="8" t="e">
         <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
+      <c r="A41" s="5">
         <f t="shared" ca="1" si="1"/>
         <v>0.01</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="10">
         <f t="shared" ca="1" si="1"/>
         <v>2.883384668545675E-2</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="10">
         <f t="shared" ca="1" si="1"/>
         <v>1.4414622896707524E-2</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="5">
         <f t="shared" ca="1" si="1"/>
         <v>218.5</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="7">
         <f t="shared" ca="1" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F41" s="7">
         <f t="shared" ca="1" si="1"/>
         <v>185.76902008056575</v>
       </c>
-      <c r="G41" s="8" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H41" s="8" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I41" s="8" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J41" s="8" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K41" s="8" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L41" s="8" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M41" s="8" t="e">
+      <c r="G41" s="7" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H41" s="7" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I41" s="7" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J41" s="7" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K41" s="7" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L41" s="7" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M41" s="7" t="e">
         <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -18614,8 +18620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8CC4B2-8DA2-7044-B8BB-C3865FE0A329}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19984,55 +19990,55 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+      <c r="A35" s="3">
         <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-35)*4,0,4,1))</f>
         <v>1E-8</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="11">
         <f t="shared" ref="B35:M35" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-35)*4,0,4,1))</f>
         <v>8.0850407335055149E-3</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>8.1865448118286499E-3</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>226.5</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>332.02394485473576</v>
       </c>
-      <c r="G35" s="6" t="e">
+      <c r="G35" s="8" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="6" t="e">
+      <c r="H35" s="8" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I35" s="6" t="e">
+      <c r="I35" s="8" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J35" s="6" t="e">
+      <c r="J35" s="8" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K35" s="6" t="e">
+      <c r="K35" s="8" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L35" s="6" t="e">
+      <c r="L35" s="8" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M35" s="6" t="e">
+      <c r="M35" s="8" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -20308,55 +20314,55 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
+      <c r="A41" s="5">
         <f t="shared" ca="1" si="1"/>
         <v>0.01</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="10">
         <f t="shared" ca="1" si="1"/>
         <v>2.2918798398484052E-2</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="10">
         <f t="shared" ca="1" si="1"/>
         <v>8.3515561666299976E-3</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="5">
         <f t="shared" ca="1" si="1"/>
         <v>250.5</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="7">
         <f t="shared" ca="1" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F41" s="7">
         <f t="shared" ca="1" si="1"/>
         <v>336.15019226074173</v>
       </c>
-      <c r="G41" s="8" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H41" s="8" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I41" s="8" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J41" s="8" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K41" s="8" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L41" s="8" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M41" s="8" t="e">
+      <c r="G41" s="7" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H41" s="7" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I41" s="7" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J41" s="7" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K41" s="7" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L41" s="7" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M41" s="7" t="e">
         <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -20430,8 +20436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55E0C2B-C766-7C43-9790-D95441714A70}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M40" sqref="A40:M40"/>
+    <sheetView topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21330,22 +21336,22 @@
         <v>71.594271960733494</v>
       </c>
       <c r="H22" s="7">
-        <v>472.95034178564498</v>
+        <v>477.98829722951399</v>
       </c>
       <c r="I22" s="7">
-        <v>82.430598953403006</v>
+        <v>87.4685543972723</v>
       </c>
       <c r="J22" s="7">
-        <v>395.97236672443199</v>
+        <v>400.19097179843101</v>
       </c>
       <c r="K22" s="7">
-        <v>68.964994991221204</v>
+        <v>73.183600065219807</v>
       </c>
       <c r="L22" s="7">
-        <v>343.62644798253098</v>
+        <v>347.28520105140097</v>
       </c>
       <c r="M22" s="7">
-        <v>60.016296312645999</v>
+        <v>63.675049381516203</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -21371,22 +21377,22 @@
         <v>118.221899121617</v>
       </c>
       <c r="H23" s="7">
-        <v>531.67139077866204</v>
+        <v>536.70934622253196</v>
       </c>
       <c r="I23" s="7">
-        <v>134.51749193299</v>
+        <v>139.55544737685901</v>
       </c>
       <c r="J23" s="7">
-        <v>445.133790055774</v>
+        <v>449.35239512977302</v>
       </c>
       <c r="K23" s="7">
-        <v>112.571211546367</v>
+        <v>116.789816620366</v>
       </c>
       <c r="L23" s="7">
-        <v>386.22593718258702</v>
+        <v>389.88469025145702</v>
       </c>
       <c r="M23" s="7">
-        <v>97.797811446845799</v>
+        <v>101.456564515716</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -21412,22 +21418,22 @@
         <v>119.02669440122099</v>
       </c>
       <c r="H24" s="7">
-        <v>614.61379637959897</v>
+        <v>619.65175182346798</v>
       </c>
       <c r="I24" s="7">
-        <v>135.39689144060401</v>
+        <v>140.43484688447299</v>
       </c>
       <c r="J24" s="7">
-        <v>514.58966576197599</v>
+        <v>518.80827083597399</v>
       </c>
       <c r="K24" s="7">
-        <v>113.31043865375</v>
+        <v>117.529043727749</v>
       </c>
       <c r="L24" s="7">
-        <v>446.55427715197902</v>
+        <v>450.21303022084999</v>
       </c>
       <c r="M24" s="7">
-        <v>98.528904332594493</v>
+        <v>102.18765740146399</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -21453,185 +21459,185 @@
         <v>118.253384866842</v>
       </c>
       <c r="H25" s="7">
-        <v>753.60059960815499</v>
+        <v>758.63855505202503</v>
       </c>
       <c r="I25" s="7">
-        <v>134.55101049191401</v>
+        <v>139.58896593578299</v>
       </c>
       <c r="J25" s="7">
-        <v>630.962196078494</v>
+        <v>635.18080115249302</v>
       </c>
       <c r="K25" s="7">
-        <v>112.592042392341</v>
+        <v>116.81064746633901</v>
       </c>
       <c r="L25" s="7">
-        <v>547.46567587197205</v>
+        <v>551.12442894084199</v>
       </c>
       <c r="M25" s="7">
-        <v>97.888539036005199</v>
+        <v>101.547292104875</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+      <c r="A26" s="5">
         <v>0.01</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="10">
         <v>2.1653072615464501E-2</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="10">
         <v>7.1253092771277103E-3</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="4">
         <v>281</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="7">
         <v>1</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="7">
         <v>367.80679321289</v>
       </c>
-      <c r="G26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="M26" s="8" t="s">
+      <c r="G26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M26" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+      <c r="A27" s="5">
         <v>0.01</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="10">
         <v>2.13200199703375E-2</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="10">
         <v>6.8233620791517601E-3</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="4">
         <v>282</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="7">
         <v>1</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="7">
         <v>486.61056518554602</v>
       </c>
-      <c r="G27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="M27" s="8" t="s">
+      <c r="G27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M27" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+      <c r="A28" s="5">
         <v>0.01</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="10">
         <v>2.14295417020718E-2</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="10">
         <v>6.9669659913299499E-3</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="4">
         <v>283</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="7">
         <v>1</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="7">
         <v>574.69927978515602</v>
       </c>
-      <c r="G28" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="M28" s="8" t="s">
+      <c r="G28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M28" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+      <c r="A29" s="5">
         <v>0.01</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="10">
         <v>2.11805372983217E-2</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="10">
         <v>6.8993337818996003E-3</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="4">
         <v>284</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="7">
         <v>1</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="7">
         <v>496.90835571289</v>
       </c>
-      <c r="G29" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="M29" s="8" t="s">
+      <c r="G29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M29" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -22100,27 +22106,27 @@
       </c>
       <c r="H40" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>593.20903213801523</v>
+        <v>598.2469875818847</v>
       </c>
       <c r="I40" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>121.72399820472776</v>
+        <v>126.76195364859683</v>
       </c>
       <c r="J40" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>496.66450465516903</v>
+        <v>500.88310972916781</v>
       </c>
       <c r="K40" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>101.8596718959198</v>
+        <v>106.07827696991845</v>
       </c>
       <c r="L40" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>430.96808454726727</v>
+        <v>434.62683761613744</v>
       </c>
       <c r="M40" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>88.557887782022874</v>
+        <v>92.216640850892801</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">

--- a/eg2 adavanced.xlsx
+++ b/eg2 adavanced.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8630E7-A182-A340-956D-70D800A3E8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DF7D4B-B29F-0348-9C1B-CAEB7726D93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19920" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
+    <workbookView xWindow="51800" yWindow="5380" windowWidth="34560" windowHeight="19860" activeTab="2" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
   <sheets>
     <sheet name="Ours 0.25" sheetId="1" r:id="rId1"/>
@@ -495,7 +495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7B8AE4-A984-5E47-83F5-2F9341F82724}">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
@@ -7752,7 +7752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4411848-26EC-7848-88E5-EF7373A463AB}">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
@@ -9558,7 +9558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C910F4E5-1871-5D44-A4D1-B4921F11A929}">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A29" sqref="A29:M29"/>
     </sheetView>
   </sheetViews>
@@ -14989,8 +14989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9902717B-D473-4C4C-BD56-0A1D1459D334}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/eg2 adavanced.xlsx
+++ b/eg2 adavanced.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BCE301-9256-FF43-8928-35E3B356BE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C835ADE3-2E3C-B34A-BB2F-A05AD4C0F658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19920" activeTab="11" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
+    <workbookView xWindow="52240" yWindow="6340" windowWidth="34560" windowHeight="19920" activeTab="8" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
   <sheets>
     <sheet name="Ours 0.25" sheetId="1" r:id="rId1"/>
@@ -2555,7 +2555,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36">
-        <f t="shared" ref="A36:P42" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-35)*4,0,4,1))</f>
+        <f t="shared" ref="A36:P41" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-35)*4,0,4,1))</f>
         <v>2</v>
       </c>
       <c r="B36">
@@ -7750,7 +7750,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <f t="shared" ref="A36:P42" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-35)*4,0,4,1))</f>
+        <f t="shared" ref="A36:P41" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-35)*4,0,4,1))</f>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B36" s="1">
@@ -8309,7 +8309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499F75C7-8FFA-2B49-8587-42E413E03360}">
   <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
@@ -20721,7 +20721,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <f t="shared" ref="A36:P42" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-35)*4,0,4,1))</f>
+        <f t="shared" ref="A36:P41" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-35)*4,0,4,1))</f>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B36" s="1">
@@ -21280,8 +21280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9902717B-D473-4C4C-BD56-0A1D1459D334}">
   <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21351,279 +21351,279 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="11">
         <v>6.4922216882308302E-3</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="11">
         <v>6.5654593549589503E-3</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>353</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="8">
         <v>1</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="8">
         <v>313.17712402343699</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="8">
         <v>40.998837863671703</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="8">
         <v>357.38672453544302</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="8">
         <v>53.1778274243119</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="8">
         <v>296.94073217411602</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="8">
         <v>44.169955526457002</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="8">
         <v>259.79329562563601</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="8">
         <v>38.865332231788301</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="2">
         <v>0.96911764144897405</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="2">
         <v>0.80703949928283603</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="2">
         <v>1.08237624168396</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="2">
         <v>0.88363242149353005</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="2">
         <v>1.9169938564300499</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="2">
         <v>1.6503541469573899</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="11">
         <v>6.6077931324640899E-3</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="11">
         <v>6.5619135523175302E-3</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>354</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="8">
         <v>1</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="8">
         <v>270.46545410156199</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="8">
         <v>33.922917170162101</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="8">
         <v>309.67760858099399</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="8">
         <v>45.298163420069898</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="8">
         <v>257.28780655496502</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="8">
         <v>37.611793402097902</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="8">
         <v>225.26563629149399</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="8">
         <v>33.2633216410416</v>
       </c>
       <c r="N3" s="2">
         <v>0.97737598419189398</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="2">
         <v>0.79174518585205</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="2">
         <v>1.07700538635253</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="2">
         <v>0.87624716758728005</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="2">
         <v>1.9221544265746999</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="2">
         <v>1.65481305122375</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="11">
         <v>6.5677869021892503E-3</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="11">
         <v>6.4744272150416299E-3</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>355</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="8">
         <v>1</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="8">
         <v>210.43582153320301</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="8">
         <v>36.770368283257902</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="8">
         <v>242.52930763883199</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="8">
         <v>48.426476201134399</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="8">
         <v>201.51242579489801</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="8">
         <v>40.230083569079</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="8">
         <v>176.54164441188101</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="8">
         <v>35.576854605472903</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="2">
         <v>0.988289594650268</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="2">
         <v>0.82091379165649403</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="2">
         <v>1.0805969238281199</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="2">
         <v>0.88910126686096103</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="2">
         <v>1.9214010238647401</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="2">
         <v>1.67463302612304</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="11">
         <v>6.5772169666985601E-3</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="11">
         <v>6.5127166998671703E-3</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>356</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="8">
         <v>1</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="8">
         <v>230.04144287109301</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="8">
         <v>44.238907702687797</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="8">
         <v>264.46362449494399</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="8">
         <v>56.7953894511882</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="8">
         <v>219.74276727678199</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="8">
         <v>47.188770481998397</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="8">
         <v>192.289593698559</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="8">
         <v>41.473096661487702</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="2">
         <v>0.98553895950317305</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="2">
         <v>0.81578803062438898</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="2">
         <v>1.06300377845764</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="2">
         <v>0.88411283493041903</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="2">
         <v>1.92651963233947</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="2">
         <v>1.65169501304626</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>6.4915962815284703E-3</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>6.5653700222994401E-3</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>357</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>1</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>299.46011352539</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="8" t="s">
+      <c r="G6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N6" t="s">
@@ -21646,43 +21646,43 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>6.6280786208808397E-3</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>6.5899452917832597E-3</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>358</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>1</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>243.49737548828099</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="M7" s="8" t="s">
+      <c r="G7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N7" t="s">
@@ -21705,43 +21705,43 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>6.5947839344541199E-3</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>6.4921774653757501E-3</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>359</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>1</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>214.27705383300699</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="M8" s="8" t="s">
+      <c r="G8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N8" t="s">
@@ -21764,43 +21764,43 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>6.6525895831485498E-3</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>6.5906409303003802E-3</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="4">
         <v>360</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>1</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>154.31649780273401</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="M9" s="8" t="s">
+      <c r="G9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N9" t="s">
@@ -29071,8 +29071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55E0C2B-C766-7C43-9790-D95441714A70}">
   <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
